--- a/database/industries/khodro/khetrak/balancesheet/yearly.xlsx
+++ b/database/industries/khodro/khetrak/balancesheet/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khetrak\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03501D86-7636-4673-9F4E-F0DAC2627D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
     <t>1401-03-11 (8)</t>
   </si>
   <si>
-    <t>1401-08-29 (5)</t>
+    <t>1401-10-28 (6)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +418,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -429,7 +430,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -476,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -511,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/khodro/khetrak/balancesheet/yearly.xlsx
+++ b/database/industries/khodro/khetrak/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khetrak\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03501D86-7636-4673-9F4E-F0DAC2627D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493A8BD-E109-4C46-AB06-C0B87623EBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-08 (8)</t>
-  </si>
-  <si>
     <t>1399-03-07 (8)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-03-11 (8)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-30 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,112 +842,112 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>68588</v>
+        <v>268652</v>
       </c>
       <c r="E12" s="15">
-        <v>268652</v>
+        <v>340943</v>
       </c>
       <c r="F12" s="15">
-        <v>340943</v>
+        <v>390078</v>
       </c>
       <c r="G12" s="15">
-        <v>390078</v>
+        <v>803430</v>
       </c>
       <c r="H12" s="15">
-        <v>803430</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1825948</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>11934</v>
+        <v>11320</v>
       </c>
       <c r="E13" s="11">
-        <v>11320</v>
+        <v>11515</v>
       </c>
       <c r="F13" s="11">
-        <v>11515</v>
+        <v>1525</v>
       </c>
       <c r="G13" s="11">
-        <v>1525</v>
+        <v>1322</v>
       </c>
       <c r="H13" s="11">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>491882</v>
+        <v>759181</v>
       </c>
       <c r="E14" s="15">
-        <v>759181</v>
+        <v>853243</v>
       </c>
       <c r="F14" s="15">
-        <v>853243</v>
+        <v>1514105</v>
       </c>
       <c r="G14" s="15">
-        <v>1514105</v>
+        <v>1506421</v>
       </c>
       <c r="H14" s="15">
-        <v>1506421</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3035359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>363877</v>
+        <v>527063</v>
       </c>
       <c r="E15" s="11">
-        <v>527063</v>
+        <v>753232</v>
       </c>
       <c r="F15" s="11">
-        <v>753232</v>
+        <v>968980</v>
       </c>
       <c r="G15" s="11">
-        <v>968980</v>
+        <v>2249104</v>
       </c>
       <c r="H15" s="11">
-        <v>2249104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4610307</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>112942</v>
+        <v>186094</v>
       </c>
       <c r="E16" s="15">
-        <v>186094</v>
+        <v>282791</v>
       </c>
       <c r="F16" s="15">
-        <v>282791</v>
+        <v>595712</v>
       </c>
       <c r="G16" s="15">
-        <v>595712</v>
+        <v>538627</v>
       </c>
       <c r="H16" s="15">
-        <v>538627</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2029647</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,49 +968,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1049223</v>
+        <v>1752310</v>
       </c>
       <c r="E18" s="17">
-        <v>1752310</v>
+        <v>2241724</v>
       </c>
       <c r="F18" s="17">
-        <v>2241724</v>
+        <v>3470400</v>
       </c>
       <c r="G18" s="17">
-        <v>3470400</v>
+        <v>5098904</v>
       </c>
       <c r="H18" s="17">
-        <v>5098904</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11502591</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>4246</v>
+        <v>6376</v>
       </c>
       <c r="E19" s="11">
-        <v>6376</v>
+        <v>5740</v>
       </c>
       <c r="F19" s="11">
-        <v>5740</v>
+        <v>11197</v>
       </c>
       <c r="G19" s="11">
-        <v>11197</v>
+        <v>7489</v>
       </c>
       <c r="H19" s="11">
-        <v>7489</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20274</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,49 +1052,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>188939</v>
+        <v>219770</v>
       </c>
       <c r="E22" s="15">
-        <v>219770</v>
+        <v>279470</v>
       </c>
       <c r="F22" s="15">
-        <v>279470</v>
+        <v>420554</v>
       </c>
       <c r="G22" s="15">
-        <v>420554</v>
+        <v>933050</v>
       </c>
       <c r="H22" s="15">
-        <v>933050</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1425095</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="E23" s="11">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="F23" s="11">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="G23" s="11">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="H23" s="11">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,49 +1136,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>193792</v>
+        <v>226718</v>
       </c>
       <c r="E26" s="17">
-        <v>226718</v>
+        <v>285927</v>
       </c>
       <c r="F26" s="17">
-        <v>285927</v>
+        <v>432389</v>
       </c>
       <c r="G26" s="17">
-        <v>432389</v>
+        <v>941098</v>
       </c>
       <c r="H26" s="17">
-        <v>941098</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1445882</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1243015</v>
+        <v>1979028</v>
       </c>
       <c r="E27" s="19">
-        <v>1979028</v>
+        <v>2527651</v>
       </c>
       <c r="F27" s="19">
-        <v>2527651</v>
+        <v>3902789</v>
       </c>
       <c r="G27" s="19">
-        <v>3902789</v>
+        <v>6040002</v>
       </c>
       <c r="H27" s="19">
-        <v>6040002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12948473</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,28 +1189,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>694383</v>
+        <v>1336621</v>
       </c>
       <c r="E29" s="15">
-        <v>1336621</v>
+        <v>885606</v>
       </c>
       <c r="F29" s="15">
-        <v>885606</v>
+        <v>1379982</v>
       </c>
       <c r="G29" s="15">
-        <v>1379982</v>
+        <v>1748981</v>
       </c>
       <c r="H29" s="15">
-        <v>1748981</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1922587</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,13 +1231,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E31" s="15">
         <v>0</v>
@@ -1249,73 +1249,73 @@
         <v>0</v>
       </c>
       <c r="H31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3248690</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>27512</v>
+        <v>1893</v>
       </c>
       <c r="E32" s="11">
-        <v>1893</v>
+        <v>0</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32" s="11">
-        <v>0</v>
+        <v>92886</v>
       </c>
       <c r="H32" s="11">
-        <v>92886</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>412336</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>4603</v>
+        <v>5309</v>
       </c>
       <c r="E33" s="15">
-        <v>5309</v>
+        <v>7039</v>
       </c>
       <c r="F33" s="15">
-        <v>7039</v>
+        <v>17754</v>
       </c>
       <c r="G33" s="15">
-        <v>17754</v>
+        <v>26248</v>
       </c>
       <c r="H33" s="15">
-        <v>26248</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>83210</v>
+        <v>0</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>322927</v>
       </c>
       <c r="F34" s="11">
-        <v>322927</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>0</v>
+        <v>310220</v>
       </c>
       <c r="H34" s="11">
-        <v>310220</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,28 +1357,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>809867</v>
+        <v>1343823</v>
       </c>
       <c r="E37" s="17">
-        <v>1343823</v>
+        <v>1215572</v>
       </c>
       <c r="F37" s="17">
-        <v>1215572</v>
+        <v>1397736</v>
       </c>
       <c r="G37" s="17">
-        <v>1397736</v>
+        <v>2178335</v>
       </c>
       <c r="H37" s="17">
-        <v>2178335</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5593559</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1390,22 +1390,22 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>26170</v>
       </c>
       <c r="G38" s="11">
-        <v>26170</v>
+        <v>77657</v>
       </c>
       <c r="H38" s="11">
-        <v>77657</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>135044</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,70 +1441,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>113910</v>
+        <v>163326</v>
       </c>
       <c r="E41" s="15">
-        <v>163326</v>
+        <v>242565</v>
       </c>
       <c r="F41" s="15">
-        <v>242565</v>
+        <v>352698</v>
       </c>
       <c r="G41" s="15">
-        <v>352698</v>
+        <v>503580</v>
       </c>
       <c r="H41" s="15">
-        <v>503580</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>853800</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>113910</v>
+        <v>163326</v>
       </c>
       <c r="E42" s="19">
-        <v>163326</v>
+        <v>242565</v>
       </c>
       <c r="F42" s="19">
-        <v>242565</v>
+        <v>378868</v>
       </c>
       <c r="G42" s="19">
-        <v>378868</v>
+        <v>581237</v>
       </c>
       <c r="H42" s="19">
-        <v>581237</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>988844</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>923777</v>
+        <v>1507149</v>
       </c>
       <c r="E43" s="17">
-        <v>1507149</v>
+        <v>1458137</v>
       </c>
       <c r="F43" s="17">
-        <v>1458137</v>
+        <v>1776604</v>
       </c>
       <c r="G43" s="17">
-        <v>1776604</v>
+        <v>2759572</v>
       </c>
       <c r="H43" s="17">
-        <v>2759572</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6582403</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1524,19 +1524,19 @@
         <v>213000</v>
       </c>
       <c r="E45" s="15">
-        <v>213000</v>
+        <v>563000</v>
       </c>
       <c r="F45" s="15">
         <v>563000</v>
       </c>
       <c r="G45" s="15">
-        <v>563000</v>
+        <v>1826000</v>
       </c>
       <c r="H45" s="15">
         <v>1826000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>334343</v>
       </c>
       <c r="G47" s="15">
-        <v>334343</v>
+        <v>0</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1620,28 +1620,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>24597</v>
+        <v>24598</v>
       </c>
       <c r="E50" s="11">
-        <v>24598</v>
+        <v>41702</v>
       </c>
       <c r="F50" s="11">
-        <v>41702</v>
+        <v>56300</v>
       </c>
       <c r="G50" s="11">
-        <v>56300</v>
+        <v>124185</v>
       </c>
       <c r="H50" s="11">
-        <v>124185</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>182600</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>13515</v>
       </c>
       <c r="E51" s="15">
-        <v>13515</v>
+        <v>0</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>0</v>
+      <c r="D52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>30</v>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,70 +1746,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>68126</v>
+        <v>220766</v>
       </c>
       <c r="E56" s="11">
-        <v>220766</v>
+        <v>464812</v>
       </c>
       <c r="F56" s="11">
-        <v>464812</v>
+        <v>1172542</v>
       </c>
       <c r="G56" s="11">
-        <v>1172542</v>
+        <v>1330245</v>
       </c>
       <c r="H56" s="11">
-        <v>1330245</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4357470</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>319238</v>
+        <v>471879</v>
       </c>
       <c r="E57" s="17">
-        <v>471879</v>
+        <v>1069514</v>
       </c>
       <c r="F57" s="17">
-        <v>1069514</v>
+        <v>2126185</v>
       </c>
       <c r="G57" s="17">
-        <v>2126185</v>
+        <v>3280430</v>
       </c>
       <c r="H57" s="17">
-        <v>3280430</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6366070</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1243015</v>
+        <v>1979028</v>
       </c>
       <c r="E58" s="19">
-        <v>1979028</v>
+        <v>2527651</v>
       </c>
       <c r="F58" s="19">
-        <v>2527651</v>
+        <v>3902789</v>
       </c>
       <c r="G58" s="19">
-        <v>3902789</v>
+        <v>6040002</v>
       </c>
       <c r="H58" s="19">
-        <v>6040002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12948473</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
